--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="17">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -49,49 +49,22 @@
     <t>Three Normal *</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Four Normal *</t>
   </si>
   <si>
     <t>Five Normal *</t>
   </si>
   <si>
-    <t>Six Meal</t>
+    <t>Six Normal *</t>
+  </si>
+  <si>
+    <t>Meal Type : Kiddies  Route: 1</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>No onions</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Six Normal *</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Meal Type : Kiddies  Route: 1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Meal Type : Kiddies  Route: 2</t>
-  </si>
-  <si>
-    <t>Couple Meal</t>
-  </si>
-  <si>
-    <t>Oysters</t>
-  </si>
-  <si>
-    <t>Tomato</t>
   </si>
 </sst>
 </file>
@@ -99,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="138">
+  <fonts count="130">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -296,22 +269,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -587,22 +544,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -809,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -876,14 +817,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -905,17 +854,11 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
@@ -923,68 +866,68 @@
     <xf numFmtId="0" fontId="62" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
@@ -992,20 +935,10 @@
     <xf numFmtId="0" fontId="105" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1129,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s" s="25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="26">
         <v>1</v>
@@ -1140,10 +1073,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s" s="29">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s" s="30">
         <v>1</v>
@@ -1154,10 +1087,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="33">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s" s="34">
         <v>1</v>
@@ -1168,29 +1101,15 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s" s="37">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s" s="38">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s" s="39">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="40">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s" s="42">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1218,137 +1137,137 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="44">
+      <c r="A1" t="s" s="40">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="45">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="46">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="47">
-        <v>20</v>
+      <c r="B1" t="s" s="41">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="43">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="48">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="49">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="50">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="51">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="52">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="53">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="54">
+      <c r="A2" t="s" s="44">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="55">
+      <c r="A3" t="s" s="51">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="56">
+      <c r="B3" t="s" s="52">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="57">
+      <c r="C3" t="s" s="53">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="58">
+      <c r="D3" t="s" s="54">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="59">
+      <c r="A4" t="s" s="55">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="60">
+      <c r="B4" t="s" s="56">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="61">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="62">
+      <c r="C4" t="s" s="57">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="63">
+      <c r="A5" t="s" s="59">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="64">
+      <c r="B5" t="s" s="60">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="61">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="63">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="64">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="65">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="67">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="68">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="70">
+      <c r="C6" t="s" s="65">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="71">
+      <c r="A7" t="s" s="67">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="68">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="69">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="71">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="72">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s" s="73">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="75">
+      <c r="B8" t="s" s="72">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="73">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="75">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="76">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s" s="77">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s" s="80">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s" s="81">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="82">
+      <c r="B9" t="s" s="76">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="78">
         <v>1</v>
       </c>
     </row>
@@ -1376,151 +1295,137 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="83">
+      <c r="A1" t="s" s="79">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="84">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="86">
-        <v>22</v>
+      <c r="B1" t="s" s="80">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="81">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="82">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="90">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="91">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="92">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="93">
+      <c r="A2" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="84">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="94">
+      <c r="A3" t="s" s="90">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="95">
+      <c r="B3" t="s" s="91">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="96">
+      <c r="C3" t="s" s="92">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="97">
+      <c r="D3" t="s" s="93">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="98">
+      <c r="A4" t="s" s="94">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="99">
+      <c r="B4" t="s" s="95">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="100">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="101">
+      <c r="C4" t="s" s="96">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="102">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s" s="103">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s" s="105">
-        <v>25</v>
+      <c r="A5" t="s" s="98">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="99">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="100">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="101">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="106">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="107">
+      <c r="A6" t="s" s="102">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="103">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="108">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="109">
+      <c r="C6" t="s" s="104">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="105">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="110">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s" s="111">
+      <c r="A7" t="s" s="106">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="107">
         <v>8</v>
       </c>
-      <c r="C7" t="s" s="112">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="113">
+      <c r="C7" t="s" s="108">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="109">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="114">
+      <c r="A8" t="s" s="110">
         <v>12</v>
       </c>
-      <c r="B8" t="s" s="115">
+      <c r="B8" t="s" s="111">
         <v>8</v>
       </c>
-      <c r="C8" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="117">
+      <c r="C8" t="s" s="112">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="113">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="118">
+      <c r="A9" t="s" s="114">
         <v>13</v>
       </c>
-      <c r="B9" t="s" s="119">
+      <c r="B9" t="s" s="115">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="120">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="122">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="123">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="124">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="125">
+      <c r="C9" t="s" s="116">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="117">
         <v>1</v>
       </c>
     </row>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -58,7 +58,13 @@
     <t>Six Normal *</t>
   </si>
   <si>
+    <t>Thu Oct 2016 17:48:40</t>
+  </si>
+  <si>
     <t>Meal Type : Kiddies  Route: 1</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 2</t>
@@ -747,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -818,6 +824,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -887,6 +896,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -956,6 +968,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1110,9 +1125,15 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="40">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1134,143 +1155,149 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="40">
+      <c r="A1" t="s" s="41">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="41">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="42">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="43">
+      <c r="B1" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="43">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="50">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="52">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="53">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="54">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="56">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="57">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="60">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="61">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="62">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="64">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="65">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="68">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="69">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="70">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="72">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="73">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="76">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="77">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="80">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="44">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="45">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="46">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="47">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="48">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="49">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="51">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="52">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="53">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="55">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="56">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="57">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="59">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="60">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="61">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="63">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="64">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="65">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="67">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="68">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="71">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="72">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="73">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="75">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="76">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="77">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="78">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1292,143 +1319,149 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="79">
+      <c r="A1" t="s" s="81">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="80">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="81">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="82">
-        <v>15</v>
+      <c r="B1" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="84">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="83">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="84">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="89">
+      <c r="A2" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="89">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="90">
+      <c r="A3" t="s" s="92">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="91">
+      <c r="B3" t="s" s="93">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="92">
+      <c r="C3" t="s" s="94">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="93">
+      <c r="D3" t="s" s="95">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="94">
+      <c r="A4" t="s" s="96">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="95">
+      <c r="B4" t="s" s="97">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="96">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="97">
+      <c r="C4" t="s" s="98">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="98">
+      <c r="A5" t="s" s="100">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="99">
+      <c r="B5" t="s" s="101">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="100">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="101">
+      <c r="C5" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="102">
+      <c r="A6" t="s" s="104">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="103">
+      <c r="B6" t="s" s="105">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="104">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="105">
+      <c r="C6" t="s" s="106">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="106">
+      <c r="A7" t="s" s="108">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="107">
+      <c r="B7" t="s" s="109">
         <v>8</v>
       </c>
-      <c r="C7" t="s" s="108">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="109">
+      <c r="C7" t="s" s="110">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="110">
+      <c r="A8" t="s" s="112">
         <v>12</v>
       </c>
-      <c r="B8" t="s" s="111">
+      <c r="B8" t="s" s="113">
         <v>8</v>
       </c>
-      <c r="C8" t="s" s="112">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="113">
+      <c r="C8" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="115">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="114">
+      <c r="A9" t="s" s="116">
         <v>13</v>
       </c>
-      <c r="B9" t="s" s="115">
+      <c r="B9" t="s" s="117">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="117">
-        <v>1</v>
+      <c r="C9" t="s" s="118">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="120">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
@@ -9,12 +9,13 @@
     <sheet name="ChefReports Route - 0" r:id="rId3" sheetId="1"/>
     <sheet name="ChefReports Route - 1" r:id="rId4" sheetId="2"/>
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
+    <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="19">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -49,52 +50,28 @@
     <t>Three Normal *</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Four Normal *</t>
   </si>
   <si>
     <t>Five Normal *</t>
   </si>
   <si>
-    <t>Six Meal</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>No onions</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Fri Oct 2016 10:14:18</t>
+    <t>Fri Oct 2016 13:59:37</t>
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 1</t>
   </si>
   <si>
-    <t>Fri Oct 2016 10:14:19</t>
-  </si>
-  <si>
     <t>Meal Type : Kiddies  Route: 2</t>
   </si>
   <si>
-    <t>Couple Meal</t>
+    <t>Meal Type : Kiddies  Route: 3</t>
   </si>
   <si>
-    <t>Oysters</t>
-  </si>
-  <si>
-    <t>Tomato</t>
+    <t>Fri Oct 2016 13:59:38</t>
   </si>
 </sst>
 </file>
@@ -102,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="138">
+  <fonts count="173">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -299,22 +276,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -606,6 +567,177 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -812,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -879,10 +1011,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -890,6 +1018,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -911,17 +1051,11 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
@@ -929,12 +1063,6 @@
     <xf numFmtId="0" fontId="62" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -962,6 +1090,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -983,17 +1123,11 @@
     <xf numFmtId="0" fontId="97" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="99" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
@@ -1001,20 +1135,82 @@
     <xf numFmtId="0" fontId="105" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="144" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="146" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1141,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s" s="25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="26">
         <v>1</v>
@@ -1152,10 +1348,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s" s="29">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s" s="30">
         <v>1</v>
@@ -1166,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="33">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s" s="34">
         <v>1</v>
@@ -1180,41 +1376,27 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="36">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="37">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="38">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="40">
         <v>14</v>
-      </c>
-      <c r="B9" t="s" s="37">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s" s="38">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s" s="39">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="40">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s" s="42">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="44">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1236,143 +1418,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="45">
+      <c r="A1" t="s" s="41">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="46">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="47">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="48">
-        <v>21</v>
+      <c r="B1" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="43">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="44">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="49">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="50">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="51">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="52">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="53">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="54">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="55">
+      <c r="A2" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="50">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="56">
+      <c r="A3" t="s" s="52">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="57">
+      <c r="B3" t="s" s="53">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="58">
+      <c r="C3" t="s" s="54">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="59">
+      <c r="D3" t="s" s="55">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="60">
+      <c r="A4" t="s" s="56">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="61">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="62">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="63">
+      <c r="B4" t="s" s="57">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="64">
+      <c r="A5" t="s" s="60">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="65">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="66">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="67">
+      <c r="B5" t="s" s="61">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="62">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="68">
+      <c r="A6" t="s" s="64">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="69">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s" s="70">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="71">
+      <c r="B6" t="s" s="65">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="72">
+      <c r="A7" t="s" s="68">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="69">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="70">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="72">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="73">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s" s="74">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="76">
+      <c r="B8" t="s" s="73">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="76">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="77">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s" s="78">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="80">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s" s="81">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s" s="82">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="83">
+      <c r="B9" t="s" s="77">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="84">
-        <v>22</v>
+      <c r="A11" t="s" s="80">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1400,163 +1582,313 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="85">
+      <c r="A1" t="s" s="81">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="88">
-        <v>23</v>
+      <c r="B1" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="84">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="90">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="91">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="92">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="93">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="94">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="95">
+      <c r="A2" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="89">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="96">
+      <c r="A3" t="s" s="92">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="97">
+      <c r="B3" t="s" s="93">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="98">
+      <c r="C3" t="s" s="94">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="99">
+      <c r="D3" t="s" s="95">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="100">
+      <c r="A4" t="s" s="96">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="101">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="102">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="103">
+      <c r="B4" t="s" s="97">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="98">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s" s="105">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="106">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s" s="107">
-        <v>26</v>
+      <c r="A5" t="s" s="100">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="101">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="103">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="108">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="109">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="110">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="111">
+      <c r="A6" t="s" s="104">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="105">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="106">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="112">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s" s="113">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="115">
+      <c r="A7" t="s" s="108">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="109">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="110">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="116">
+      <c r="A8" t="s" s="112">
         <v>12</v>
       </c>
-      <c r="B8" t="s" s="117">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s" s="118">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="119">
+      <c r="B8" t="s" s="113">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="115">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="120">
+      <c r="A9" t="s" s="116">
         <v>13</v>
       </c>
-      <c r="B9" t="s" s="121">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s" s="122">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="124">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="125">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s" s="126">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="128">
-        <v>22</v>
+      <c r="B9" t="s" s="117">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="118">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="120">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="121">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="123">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="124">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="125">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="126">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="127">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="128">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="129">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="130">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="133">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="134">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="136">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="137">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="140">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="141">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="142">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="144">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="145">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="148">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="149">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="152">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="153">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="154">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="156">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="157">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="160">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="18">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 13:59:37</t>
+    <t>Fri Oct 2016 14:07:05</t>
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 1</t>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 3</t>
-  </si>
-  <si>
-    <t>Fri Oct 2016 13:59:38</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1879,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="160">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
@@ -10,12 +10,14 @@
     <sheet name="ChefReports Route - 1" r:id="rId4" sheetId="2"/>
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
     <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
+    <sheet name="ChefReports Route - 4" r:id="rId7" sheetId="5"/>
+    <sheet name="ChefReports Route - 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="21">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -59,10 +61,13 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 14:07:05</t>
+    <t>Fri Oct 2016 15:02:13</t>
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 1</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 15:02:14</t>
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 2</t>
@@ -70,19 +75,399 @@
   <si>
     <t>Meal Type : Kiddies  Route: 3</t>
   </si>
+  <si>
+    <t>Meal Type : Kiddies  Route: 4</t>
+  </si>
+  <si>
+    <t>Meal Type : Kiddies  Route: 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="173">
+  <fonts count="259">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -941,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1202,6 +1587,150 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="148" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1551,7 +2080,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="80">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="84">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -1715,7 +2244,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="120">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="124">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -1879,7 +2408,335 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="160">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="161">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="162">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="163">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="164">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="165">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="166">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="167">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="168">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="170">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="172">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="173">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="174">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="176">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="177">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="180">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="181">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="182">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="184">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="185">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="186">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="188">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="189">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="190">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="192">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="193">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="196">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="197">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="198">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="200">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="201">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="202">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="203">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="204">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="205">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="206">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="207">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="208">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="209">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="210">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="212">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="213">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="214">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="216">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="217">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="218">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="220">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="221">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="222">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="224">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="225">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="226">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="228">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="229">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="230">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="232">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="233">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="234">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="236">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="237">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="238">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="240">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
@@ -11,13 +11,12 @@
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
     <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
     <sheet name="ChefReports Route - 4" r:id="rId7" sheetId="5"/>
-    <sheet name="ChefReports Route - 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="19">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -61,13 +60,10 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 15:02:13</t>
+    <t>Fri Oct 2016 15:19:41</t>
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 1</t>
-  </si>
-  <si>
-    <t>Fri Oct 2016 15:02:14</t>
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 2</t>
@@ -78,209 +74,19 @@
   <si>
     <t>Meal Type : Kiddies  Route: 4</t>
   </si>
-  <si>
-    <t>Meal Type : Kiddies  Route: 5</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="259">
+  <fonts count="216">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1326,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1659,78 +1465,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="191" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -2080,7 +1814,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="80">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2118,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="84">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2244,7 +1978,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="120">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="124">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -2408,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="160">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="164">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -2572,171 +2306,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="200">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:D11"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="15.625" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="31.25" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="15.625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="201">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="203">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="204">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="205">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="206">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="207">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="208">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="209">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="210">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="212">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="213">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="214">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="215">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="216">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="217">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="218">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="220">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="221">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="222">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="224">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="225">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="226">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="228">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="229">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="230">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="232">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="233">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="234">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="236">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="237">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="238">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="240">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Kiddies ).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="20">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -60,13 +60,16 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 15:19:41</t>
+    <t>Fri Oct 2016 15:24:57</t>
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 1</t>
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 2</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 15:24:58</t>
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 3</t>
@@ -1978,7 +1981,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="120">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2016,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="124">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -2142,7 +2145,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="160">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="164">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -2306,7 +2309,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="200">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
